--- a/biology/Médecine/Syndrome_de_Romano-Ward/Syndrome_de_Romano-Ward.xlsx
+++ b/biology/Médecine/Syndrome_de_Romano-Ward/Syndrome_de_Romano-Ward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Romano-Ward est un trouble héréditaire de la conduction cardiaque. Elle se manifeste souvent chez des sujets par des syncopes pouvant aboutir à une mort subite. Le traitement est médical et efficace. Il s'agit d'un syndrome du QT long congénital, sans atteinte auditive, ce qui l'oppose au syndrome de Jervell et Lange-Nielsen.
-Son nom vient de ses deux découvreurs qui ont publié séparément les premiers cas en 1963[1] et 1964[2].
+Son nom vient de ses deux découvreurs qui ont publié séparément les premiers cas en 1963 et 1964.
 De nombreux médicaments sont formellement contre-indiqués chez ces patients.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plusieurs gènes sont impliqués dans ce syndrome. Les mutations de ces différents gènes aboutissent tous à un dysfonctionnement des canaux ioniques cardiaques soit potassique soit sodique
 Canaux potassiques
@@ -554,7 +568,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les personnes présentant les mutations des gènes n’auront pas toujours de manifestations cliniques, mais le décès brutal survient chez 10 % des personnes avec manifestation clinique.
 Les manifestations de cette maladie commencent le plus souvent au cours de la puberté mais parfois elle se manifeste très tôt.
@@ -590,15 +606,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Par mesure de l’intervalle QT ou la mise en évidence d’une mutation.
-Électrocardiogramme
-Se fait sur la base de la mesure de l’ intervalle QT au cours de l’électrocardiogramme, le QT est dit long si le temps entre le début de l’onde Q et la fin de l'onde T de l’électrocardiogramme est de 450 millisecondes. Le diagnostic est posé si l’intervalle QT est de 470 millisecondes chez les hommes et 480 millisecondes chez les femmes.
-Cependant dans 30 % des cas l’intervalle est peu prolongé et dans 10 % des cas l’intervalle est normal. Dans ce cas, il est nécessaire de réaliser des tests de provocation dans des centres spécialisés dans les troubles du rythme cardiaque.
-L’analyse de la forme de l’onde T permet aussi de faire le diagnostic dans certains cas et de différencier les différents types de ce syndrome
-Enquête génétique
-Seules 70 % des personnes atteintes ont une mutation des gènes KCNQ1, KCNE1, KCNH2, KCNE2 et SCN5A indiquant que d’autres gènes sont impliqués
 </t>
         </is>
       </c>
@@ -624,10 +636,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Électrocardiogramme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se fait sur la base de la mesure de l’ intervalle QT au cours de l’électrocardiogramme, le QT est dit long si le temps entre le début de l’onde Q et la fin de l'onde T de l’électrocardiogramme est de 450 millisecondes. Le diagnostic est posé si l’intervalle QT est de 470 millisecondes chez les hommes et 480 millisecondes chez les femmes.
+Cependant dans 30 % des cas l’intervalle est peu prolongé et dans 10 % des cas l’intervalle est normal. Dans ce cas, il est nécessaire de réaliser des tests de provocation dans des centres spécialisés dans les troubles du rythme cardiaque.
+L’analyse de la forme de l’onde T permet aussi de faire le diagnostic dans certains cas et de différencier les différents types de ce syndrome
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Romano-Ward</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Romano-Ward</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Enquête génétique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seules 70 % des personnes atteintes ont une mutation des gènes KCNQ1, KCNE1, KCNH2, KCNE2 et SCN5A indiquant que d’autres gènes sont impliqués
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Romano-Ward</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Romano-Ward</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Diagnostics différentiels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Syndrome de Romano-Ward avec syndactylie
 Syndrome de Jervell et Lange-Nielsen
@@ -637,31 +727,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Syndrome_de_Romano-Ward</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_de_Romano-Ward</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patients atteints par cette maladie ont un parent porteur du gène. Il faudra rechercher par les mêmes tests de diagnostic le parent atteint. Les mutations de novo étant très rares, il faudra penser à un géniteur différent ou une adoption cachée.
 </t>
